--- a/FlexiFed-main/复现总任务结果.xlsx
+++ b/FlexiFed-main/复现总任务结果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\at-lab-zzp\生产实习-异质结构个性化联邦学习复现\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\at-lab-zzp\FlexiFed-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E544D3B3-26DB-41C1-A058-FCB9EC4EE5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5B30BE-8976-489A-8C46-D40E6ECA4388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="1" xr2:uid="{F5BFD6B8-C5CC-4A31-B27E-CDE4EB1D65A0}"/>
   </bookViews>
@@ -293,19 +293,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -444,13 +431,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,12 +496,84 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -514,80 +586,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1721,62 +1733,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="K1" s="16" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="K1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1788,26 +1800,26 @@
       <c r="E3" s="13">
         <v>502</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="17">
         <v>64.2</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="18">
         <v>64.3</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="18">
         <v>65.099999999999994</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="18">
         <v>66.2</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1817,27 +1829,27 @@
       <c r="E4" s="13">
         <v>502</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="19">
         <v>71.2</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="20">
         <v>74.7</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="20">
         <v>76.5</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="20">
         <v>79.8</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5">
@@ -1846,43 +1858,43 @@
       <c r="E5" s="13">
         <v>502</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="19">
         <v>72.900000000000006</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="20">
         <v>77.2</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="20">
         <v>79.3</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="20">
         <v>81.099999999999994</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="13">
         <v>502</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1890,34 +1902,34 @@
       <c r="E7" s="13">
         <v>502</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="13">
         <v>502</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="5">
@@ -1926,22 +1938,22 @@
       <c r="E9" s="13">
         <v>502</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="19">
         <v>48.2</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="20">
         <v>50.2</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="20">
         <v>48.3</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="23">
         <v>47.3</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="1"/>
       <c r="D10" s="5">
         <v>45128</v>
@@ -1949,22 +1961,22 @@
       <c r="E10" s="13">
         <v>800</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="19">
         <v>42</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="20">
         <v>43.8</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="20">
         <v>45.7</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="23">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5">
         <v>45130</v>
@@ -1972,22 +1984,22 @@
       <c r="E11" s="13">
         <v>1501</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="19">
         <v>43.13</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="20">
         <v>47.21</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="20">
         <v>45.18</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="23">
         <v>41.32</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5">
         <v>45132</v>
@@ -1995,22 +2007,22 @@
       <c r="E12" s="13">
         <v>3001</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="19">
         <v>43.3</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="20">
         <v>47.1</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="20">
         <v>45</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="23">
         <v>42.9</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2020,23 +2032,23 @@
       <c r="E13" s="13">
         <v>800</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="19">
         <v>54.2</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="20">
         <v>54.3</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="20">
         <v>56.6</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="20">
         <v>57.5</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="5">
@@ -2045,152 +2057,152 @@
       <c r="E14" s="13">
         <v>800</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="19">
         <v>55.3</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="20">
         <v>62.1</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="20">
         <v>64.099999999999994</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="20">
         <v>64.7</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="5">
@@ -2199,22 +2211,22 @@
       <c r="E24" s="13">
         <v>501</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="24">
         <v>12.2</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="23">
         <v>13.3</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="23">
         <v>10.6</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="23">
         <v>11.9</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2224,23 +2236,23 @@
       <c r="E25" s="13">
         <v>501</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="24">
         <v>20.2</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="23">
         <v>22</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="23">
         <v>17.399999999999999</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="23">
         <v>11.7</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="5">
@@ -2249,22 +2261,22 @@
       <c r="E26" s="13">
         <v>501</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="24">
         <v>20.8</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="23">
         <v>21.7</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="23">
         <v>18.399999999999999</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2272,45 +2284,45 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="5">
@@ -2319,22 +2331,22 @@
       <c r="E30" s="13">
         <v>501</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="26">
         <v>80.2</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="27">
         <v>82.2</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="27">
         <v>83.9</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="27">
         <v>84.1</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="41"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2344,23 +2356,23 @@
       <c r="E31" s="13">
         <v>501</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="26">
         <v>84.2</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="27">
         <v>84.5</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="27">
         <v>85.3</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="27">
         <v>86.4</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="41"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="5">
@@ -2369,22 +2381,22 @@
       <c r="E32" s="13">
         <v>501</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="26">
         <v>84.9</v>
       </c>
-      <c r="G32" s="43">
+      <c r="G32" s="27">
         <v>85.9</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="27">
         <v>86.7</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="27">
         <v>86.9</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="41"/>
-      <c r="B33" s="25" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2392,39 +2404,45 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="41"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
     </row>
     <row r="35" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -2441,12 +2459,6 @@
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2459,15 +2471,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="340" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="49"/>
     <col min="2" max="2" width="19.9140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="1"/>
     <col min="4" max="4" width="19.4140625" style="1" customWidth="1"/>
@@ -2479,42 +2491,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
@@ -2529,7 +2541,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2562,7 +2574,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2595,7 +2607,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2628,7 +2640,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2661,7 +2673,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2694,7 +2706,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2727,7 +2739,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2760,7 +2772,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2793,7 +2805,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2826,7 +2838,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2859,7 +2871,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2891,8 +2903,8 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="340" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+    <row r="14" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2911,21 +2923,21 @@
         <v>501</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="11">
+      <c r="H14" s="46">
         <v>20.8</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="46">
         <v>21.7</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="46">
         <v>18.399999999999999</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="46">
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="340" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13">
+    <row r="15" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="48">
         <v>13</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -2944,21 +2956,21 @@
         <v>501</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="42">
+      <c r="H15" s="47">
         <v>80.2</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="47">
         <v>82.2</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="47">
         <v>83.9</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="47">
         <v>84.1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="340" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+    <row r="16" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -2977,21 +2989,21 @@
         <v>501</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="42">
+      <c r="H16" s="47">
         <v>84.2</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="47">
         <v>84.5</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="47">
         <v>85.3</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="47">
         <v>86.4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="340" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13">
+    <row r="17" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="48">
         <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -3010,22 +3022,17 @@
         <v>501</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="42">
+      <c r="H17" s="47">
         <v>84.9</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="47">
         <v>85.9</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="47">
         <v>86.7</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="47">
         <v>86.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3070,42 +3077,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3118,10 +3125,10 @@
       <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -3154,10 +3161,10 @@
       <c r="J3" s="3">
         <v>66.2</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">

--- a/FlexiFed-main/复现总任务结果.xlsx
+++ b/FlexiFed-main/复现总任务结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\at-lab-zzp\FlexiFed-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5B30BE-8976-489A-8C46-D40E6ECA4388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61FA448-C8DC-45F0-A532-1FD9FBDBED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="1" xr2:uid="{F5BFD6B8-C5CC-4A31-B27E-CDE4EB1D65A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18020" windowHeight="11020" xr2:uid="{F5BFD6B8-C5CC-4A31-B27E-CDE4EB1D65A0}"/>
   </bookViews>
   <sheets>
     <sheet name="实验总结果汇总" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="31">
   <si>
     <t>数据集</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注：标红数据表示训练者认为该数据不符合理论预期，很可能存在误差或者错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CINIC-10</t>
   </si>
   <si>
@@ -143,6 +139,26 @@
   <si>
     <t>Speech Commands（latest）</t>
   </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr过大，每10个epoch震荡一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标红数据表示训练者认为该数据不符合理论预期，很可能存在误差或者错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标绿数据表示训练者认为该数据略低于原文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标蓝数据表示训练者认为该数据略高于原文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +230,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -321,58 +377,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -444,13 +448,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,81 +512,78 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -589,17 +599,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,15 +645,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>265591</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>425627</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>77573</xdr:rowOff>
+      <xdr:colOff>321235</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>51853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -654,8 +676,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7454900" y="965200"/>
-          <a:ext cx="3422827" cy="4274923"/>
+          <a:off x="8020062" y="1725705"/>
+          <a:ext cx="3820820" cy="4818089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1719,76 +1741,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297B6C15-0B95-4F80-8E90-2C84953B6AF5}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="14.9140625" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="K1" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="16" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1800,26 +1828,27 @@
       <c r="E3" s="13">
         <v>502</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="48">
         <v>64.2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="48">
         <v>64.3</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="48">
         <v>65.099999999999994</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="48">
         <v>66.2</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36"/>
-      <c r="B4" s="31"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+    </row>
+    <row r="4" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1829,27 +1858,30 @@
       <c r="E4" s="13">
         <v>502</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="48">
         <v>71.2</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="48">
         <v>74.7</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="48">
         <v>76.5</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="48">
         <v>79.8</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="21" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5">
@@ -1858,78 +1890,126 @@
       <c r="E5" s="13">
         <v>502</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="48">
         <v>72.900000000000006</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="48">
         <v>77.2</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="48">
         <v>79.3</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="48">
         <v>81.099999999999994</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
-      <c r="B6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="J5" s="45"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+    </row>
+    <row r="6" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>45140</v>
+      </c>
       <c r="E6" s="13">
-        <v>502</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36"/>
-      <c r="B7" s="31"/>
+        <v>80</v>
+      </c>
+      <c r="F6" s="47">
+        <v>71.3</v>
+      </c>
+      <c r="G6" s="47">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="H6" s="47">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I6" s="47">
+        <v>74.2</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>45140</v>
+      </c>
       <c r="E7" s="13">
-        <v>502</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="47">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="G7" s="47">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="H7" s="47">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="I7" s="47">
+        <v>81.7</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>45140</v>
+      </c>
       <c r="E8" s="13">
-        <v>502</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="48">
+        <v>77.5</v>
+      </c>
+      <c r="G8" s="48">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="H8" s="48">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="I8" s="48">
+        <v>82.1</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+    </row>
+    <row r="9" spans="1:14" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="5">
@@ -1938,91 +2018,117 @@
       <c r="E9" s="13">
         <v>502</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="26">
         <v>48.2</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="26">
         <v>50.2</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="26">
         <v>48.3</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="7">
         <v>47.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="1"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+    </row>
+    <row r="10" spans="1:14" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="24" t="s">
+        <v>4</v>
+      </c>
       <c r="D10" s="5">
         <v>45128</v>
       </c>
       <c r="E10" s="13">
         <v>800</v>
       </c>
-      <c r="F10" s="19">
-        <v>42</v>
-      </c>
-      <c r="G10" s="20">
+      <c r="F10" s="26">
+        <v>42.2</v>
+      </c>
+      <c r="G10" s="26">
         <v>43.8</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="26">
         <v>45.7</v>
       </c>
-      <c r="I10" s="23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="1"/>
+      <c r="I10" s="7">
+        <v>40.1</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+    </row>
+    <row r="11" spans="1:14" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="24" t="s">
+        <v>4</v>
+      </c>
       <c r="D11" s="5">
         <v>45130</v>
       </c>
       <c r="E11" s="13">
         <v>1501</v>
       </c>
-      <c r="F11" s="19">
-        <v>43.13</v>
-      </c>
-      <c r="G11" s="20">
-        <v>47.21</v>
-      </c>
-      <c r="H11" s="20">
-        <v>45.18</v>
-      </c>
-      <c r="I11" s="23">
-        <v>41.32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="1"/>
+      <c r="F11" s="26">
+        <v>43.1</v>
+      </c>
+      <c r="G11" s="26">
+        <v>47.2</v>
+      </c>
+      <c r="H11" s="26">
+        <v>45.2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>41.3</v>
+      </c>
+      <c r="J11" s="45"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="24" t="s">
+        <v>4</v>
+      </c>
       <c r="D12" s="5">
         <v>45132</v>
       </c>
       <c r="E12" s="13">
         <v>3001</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="48">
         <v>43.3</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="48">
         <v>47.1</v>
       </c>
-      <c r="H12" s="20">
-        <v>45</v>
-      </c>
-      <c r="I12" s="23">
+      <c r="H12" s="48">
+        <v>45.1</v>
+      </c>
+      <c r="I12" s="7">
         <v>42.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
-      <c r="B13" s="31"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2032,23 +2138,24 @@
       <c r="E13" s="13">
         <v>800</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="48">
         <v>54.2</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="48">
         <v>54.3</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="48">
         <v>56.6</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="48">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="21" t="s">
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="5">
@@ -2057,152 +2164,270 @@
       <c r="E14" s="13">
         <v>800</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="48">
         <v>55.3</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="48">
         <v>62.1</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="48">
         <v>64.099999999999994</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="48">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36"/>
-      <c r="B15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="J14" s="45"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36"/>
-      <c r="B16" s="31"/>
+      <c r="D15" s="5">
+        <v>45141</v>
+      </c>
+      <c r="E15" s="13">
+        <v>50</v>
+      </c>
+      <c r="F15" s="48">
+        <v>46.7</v>
+      </c>
+      <c r="G15" s="48">
+        <v>46.9</v>
+      </c>
+      <c r="H15" s="48">
+        <v>48.1</v>
+      </c>
+      <c r="I15" s="48">
+        <v>48.9</v>
+      </c>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="21" t="s">
+      <c r="D16" s="5">
+        <v>45141</v>
+      </c>
+      <c r="E16" s="13">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7">
+        <v>54.3</v>
+      </c>
+      <c r="G16" s="7">
+        <v>54.8</v>
+      </c>
+      <c r="H16" s="7">
+        <v>55.5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>56.4</v>
+      </c>
+      <c r="J16" s="45"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
+      <c r="D17" s="5">
+        <v>45141</v>
+      </c>
+      <c r="E17" s="13">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7">
+        <v>55.4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>55.7</v>
+      </c>
+      <c r="H17" s="7">
+        <v>57.1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>58.2</v>
+      </c>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
-      <c r="B19" s="31"/>
+      <c r="D18" s="5">
+        <v>45141</v>
+      </c>
+      <c r="E18" s="13">
+        <v>100</v>
+      </c>
+      <c r="F18" s="47">
+        <v>84.1</v>
+      </c>
+      <c r="G18" s="47">
+        <v>85.2</v>
+      </c>
+      <c r="H18" s="47">
+        <v>85.6</v>
+      </c>
+      <c r="I18" s="47">
+        <v>86.7</v>
+      </c>
+      <c r="J18" s="45"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="21" t="s">
+      <c r="D19" s="5">
+        <v>45142</v>
+      </c>
+      <c r="E19" s="13">
+        <v>100</v>
+      </c>
+      <c r="F19" s="47">
+        <v>84.9</v>
+      </c>
+      <c r="G19" s="47">
+        <v>86.1</v>
+      </c>
+      <c r="H19" s="47">
+        <v>87.3</v>
+      </c>
+      <c r="I19" s="47">
+        <v>87.7</v>
+      </c>
+      <c r="J19" s="45"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36"/>
-      <c r="B21" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="22" t="s">
+      <c r="D20" s="5">
+        <v>45141</v>
+      </c>
+      <c r="E20" s="13">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7">
+        <v>71.5</v>
+      </c>
+      <c r="G20" s="48">
+        <v>84.3</v>
+      </c>
+      <c r="H20" s="48">
+        <v>85.8</v>
+      </c>
+      <c r="I20" s="48">
+        <v>86.9</v>
+      </c>
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="36"/>
-      <c r="B22" s="31"/>
+      <c r="D21" s="5">
+        <v>45141</v>
+      </c>
+      <c r="E21" s="13">
+        <v>100</v>
+      </c>
+      <c r="F21" s="47">
+        <v>83.5</v>
+      </c>
+      <c r="G21" s="47">
+        <v>83.6</v>
+      </c>
+      <c r="H21" s="47">
+        <v>85.2</v>
+      </c>
+      <c r="I21" s="47">
+        <v>85.8</v>
+      </c>
+      <c r="J21" s="45"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="21" t="s">
+      <c r="D22" s="5">
+        <v>45142</v>
+      </c>
+      <c r="E22" s="13">
+        <v>100</v>
+      </c>
+      <c r="F22" s="48">
+        <v>81.3</v>
+      </c>
+      <c r="G22" s="48">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H22" s="48">
+        <v>82.7</v>
+      </c>
+      <c r="I22" s="48">
+        <v>86.2</v>
+      </c>
+      <c r="J22" s="45"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="36" t="s">
+      <c r="D23" s="5">
+        <v>45142</v>
+      </c>
+      <c r="E23" s="13">
+        <v>100</v>
+      </c>
+      <c r="F23" s="48">
+        <v>86.3</v>
+      </c>
+      <c r="G23" s="48">
+        <v>87.8</v>
+      </c>
+      <c r="H23" s="48">
+        <v>87.9</v>
+      </c>
+      <c r="I23" s="48">
+        <v>89.2</v>
+      </c>
+      <c r="J23" s="45"/>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="5">
@@ -2211,22 +2436,23 @@
       <c r="E24" s="13">
         <v>501</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="7">
         <v>12.2</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="7">
         <v>13.3</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="7">
         <v>10.6</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="7">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="36"/>
-      <c r="B25" s="31"/>
+      <c r="J24" s="45"/>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2236,23 +2462,24 @@
       <c r="E25" s="13">
         <v>501</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="7">
         <v>20.2</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="7">
         <v>22</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="7">
         <v>17.399999999999999</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="7">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="36"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="21" t="s">
+      <c r="J25" s="45"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="5">
@@ -2261,68 +2488,72 @@
       <c r="E26" s="13">
         <v>501</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="7">
         <v>20.8</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="7">
         <v>21.7</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="7">
         <v>18.399999999999999</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="36"/>
-      <c r="B27" s="31" t="s">
-        <v>21</v>
+      <c r="J26" s="45"/>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
+      <c r="B27" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="36"/>
-      <c r="B28" s="31"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="45"/>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="38"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="25" t="s">
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="37"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="30" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="45"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="5">
@@ -2331,22 +2562,23 @@
       <c r="E30" s="13">
         <v>501</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="47">
         <v>80.2</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="47">
         <v>82.2</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="47">
         <v>83.9</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="47">
         <v>84.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="28"/>
-      <c r="B31" s="31"/>
+      <c r="J30" s="45"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2356,23 +2588,24 @@
       <c r="E31" s="13">
         <v>501</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="47">
         <v>84.2</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="47">
         <v>84.5</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="47">
         <v>85.3</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="47">
         <v>86.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="21" t="s">
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="5">
@@ -2381,72 +2614,142 @@
       <c r="E32" s="13">
         <v>501</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="48">
         <v>84.9</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="48">
         <v>85.9</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="48">
         <v>86.7</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="48">
         <v>86.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="28"/>
-      <c r="B33" s="31" t="s">
-        <v>21</v>
+      <c r="J32" s="45"/>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="28"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="1" t="s">
+      <c r="D33" s="5">
+        <v>45140</v>
+      </c>
+      <c r="E33" s="13">
+        <v>50</v>
+      </c>
+      <c r="F33" s="20">
+        <v>84.3</v>
+      </c>
+      <c r="G33" s="20">
+        <v>86.8</v>
+      </c>
+      <c r="H33" s="20">
+        <v>87.2</v>
+      </c>
+      <c r="I33" s="20">
+        <v>87.1</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5">
+        <v>45141</v>
+      </c>
+      <c r="E34" s="26">
+        <v>200</v>
+      </c>
+      <c r="F34" s="48">
+        <v>82.9</v>
+      </c>
+      <c r="G34" s="48">
+        <v>83.4</v>
+      </c>
+      <c r="H34" s="48">
+        <v>86.4</v>
+      </c>
+      <c r="I34" s="48">
+        <v>87.1</v>
+      </c>
+      <c r="J34" s="46"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="29"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="25" t="s">
+      <c r="D35" s="5">
+        <v>45141</v>
+      </c>
+      <c r="E35" s="13">
+        <v>200</v>
+      </c>
+      <c r="F35" s="47">
+        <v>86.9</v>
+      </c>
+      <c r="G35" s="47">
+        <v>90.2</v>
+      </c>
+      <c r="H35" s="47">
+        <v>91.3</v>
+      </c>
+      <c r="I35" s="47">
+        <v>91.3</v>
+      </c>
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="28"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="D36" s="5">
+        <v>45141</v>
+      </c>
+      <c r="E36" s="13">
+        <v>200</v>
+      </c>
+      <c r="F36" s="47">
+        <v>86.8</v>
+      </c>
+      <c r="G36" s="47">
+        <v>90.1</v>
+      </c>
+      <c r="H36" s="47">
+        <v>91.8</v>
+      </c>
+      <c r="I36" s="47">
+        <v>92.5</v>
+      </c>
+      <c r="J36" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="K1:N3"/>
+    <mergeCell ref="K4:N6"/>
+    <mergeCell ref="K7:N12"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A30:A36"/>
     <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="K1:N5"/>
+    <mergeCell ref="B33:B36"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B23"/>
@@ -2462,7 +2765,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2473,13 +2777,13 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="340" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="49"/>
+    <col min="1" max="1" width="8.6640625" style="22"/>
     <col min="2" max="2" width="19.9140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="1"/>
     <col min="4" max="4" width="19.4140625" style="1" customWidth="1"/>
@@ -2491,42 +2795,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
@@ -2710,7 +3014,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>11</v>
@@ -2743,7 +3047,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>11</v>
@@ -2776,7 +3080,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>11</v>
@@ -2809,7 +3113,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>11</v>
@@ -2923,25 +3227,25 @@
         <v>501</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="46">
+      <c r="H14" s="19">
         <v>20.8</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="19">
         <v>21.7</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="19">
         <v>18.399999999999999</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="19">
         <v>12.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>11</v>
@@ -2956,16 +3260,16 @@
         <v>501</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="47">
+      <c r="H15" s="20">
         <v>80.2</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="20">
         <v>82.2</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="20">
         <v>83.9</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="20">
         <v>84.1</v>
       </c>
     </row>
@@ -2974,7 +3278,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>11</v>
@@ -2989,25 +3293,25 @@
         <v>501</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="47">
+      <c r="H16" s="20">
         <v>84.2</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="20">
         <v>84.5</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="20">
         <v>85.3</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="20">
         <v>86.4</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="340" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48">
+      <c r="A17" s="21">
         <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>11</v>
@@ -3022,16 +3326,16 @@
         <v>501</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="47">
+      <c r="H17" s="20">
         <v>84.9</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="20">
         <v>85.9</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="20">
         <v>86.7</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="20">
         <v>86.9</v>
       </c>
     </row>
@@ -3077,42 +3381,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3125,10 +3429,10 @@
       <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -3161,10 +3465,10 @@
       <c r="J3" s="3">
         <v>66.2</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -3269,7 +3573,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
@@ -3302,7 +3606,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
@@ -3335,7 +3639,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -3367,7 +3671,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
